--- a/biology/Zoologie/Climatius/Climatius.xlsx
+++ b/biology/Zoologie/Climatius/Climatius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Climatius (« poisson incliné) » est un genre éteint de requins épineux. Ses fossiles ont été trouvés en Europe et en Amérique du Nord dans le Dévonien inférieur.
-Il a été décrit en 1845 par le zoologiste suisse Louis Agassiz[1].
+Il a été décrit en 1845 par le zoologiste suisse Louis Agassiz.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Climatius était un nageur actif à en juger par sa puissante nageoire caudale et ses nageoires stabilisatrices abondantes, et il se nourrissait probablement d'autres poissons et crustacés. Sa mâchoire inférieure était garnie de dents acérées qui étaient remplacées quand elles étaient usées, tandis que sa mâchoire supérieure ne portait pas de dents.
 </t>
